--- a/实验结果.xlsx
+++ b/实验结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repoes\PDNA_CNN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B92534E7-6745-4B79-9194-20C51300D32B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA09359-FD21-4644-9F54-3FD926073696}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{EBCED648-71F5-4C58-A71D-4A2941DA5510}"/>
+    <workbookView xWindow="0" yWindow="907" windowWidth="18225" windowHeight="11423" xr2:uid="{EBCED648-71F5-4C58-A71D-4A2941DA5510}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>数据集</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,6 +86,46 @@
   </si>
   <si>
     <t>0.3671（0.2957）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HHM矩阵，滑窗大小11*2+1=23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capsule集成
+过滤器[3,5,7,9,11]
+每个网络的训练集中对负样本用随机下采样3倍正样本数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9231(0.8972)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3859(0.3207)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confusion-matrix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13224   797
+337       397</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9336（0.9110）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3911（0.3280）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13419   602
+377       357</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -193,30 +233,36 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,171 +578,203 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39179FFF-1169-4683-B033-59F951C62416}">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.06640625" customWidth="1"/>
     <col min="3" max="4" width="17.53125" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="5" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="7"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="6"/>
     </row>
     <row r="2" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="105.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>0.92210000000000003</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>0.36120000000000002</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>0.34</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/实验结果.xlsx
+++ b/实验结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repoes\PDNA_CNN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA09359-FD21-4644-9F54-3FD926073696}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329091B8-5411-4CEF-AC80-8B988FD5D454}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="907" windowWidth="18225" windowHeight="11423" xr2:uid="{EBCED648-71F5-4C58-A71D-4A2941DA5510}"/>
+    <workbookView xWindow="-1103" yWindow="1163" windowWidth="18226" windowHeight="11422" xr2:uid="{EBCED648-71F5-4C58-A71D-4A2941DA5510}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>数据集</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +126,54 @@
   <si>
     <t>13419   602
 377       357</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HHM矩阵，滑窗大小7*2+1=15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9372(0.9105)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3781(0.3245)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13507   514
+412       322</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capsule集成
+过滤器[3,5,7,9,11]
+每个网络的训练集中对负样本用随机下采样4倍正样本数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capsule集成
+过滤器[1,3,4,5,7]
+每个网络的训练集中对负样本用随机下采样4倍正样本数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capsule集成
+过滤器[1,3,7,11,15]
+每个网络的训练集中对负样本用随机下采样4倍正样本数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9440(0.9181)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4006(0.3510)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13616    405
+422        312</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -255,14 +303,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39179FFF-1169-4683-B033-59F951C62416}">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -589,13 +637,14 @@
     <col min="1" max="1" width="9.06640625" customWidth="1"/>
     <col min="3" max="4" width="17.53125" customWidth="1"/>
     <col min="5" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="18.53125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="8"/>
       <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
@@ -618,10 +667,10 @@
       <c r="T1" s="6"/>
     </row>
     <row r="2" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
@@ -637,7 +686,9 @@
       <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -652,10 +703,10 @@
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="105.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
@@ -669,9 +720,11 @@
         <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -686,7 +739,7 @@
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -705,7 +758,9 @@
       <c r="G4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -720,7 +775,7 @@
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -739,7 +794,9 @@
       <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -754,18 +811,46 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="7" t="s">
         <v>21</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C11" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
